--- a/500all/speech_level/speeches_CHRG-114hhrg97462.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97462.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I call to order this hearing of the Europe, Eurasia, and Emerging Threats Subcommittee. As we begin today, I want to note that Congressman Meeks, the subcommittee's ranking member, is not with us today. He is recovering from a small, a minor, heart attack. We are grateful, very, very grateful, that it is a small one, and that he is on his way to recovery. He is on the mend, and we are looking forward to having him back with us very soon. I know I speak for all my colleagues, and we wish him the very, very best.    Turning the topic to this afternoon's hearing, I want to apologize for being late, but that is what happens when you have to do these hearings around votes.    The topic of this afternoon's hearing is a massive and increasing tide of asylum seekers, economic vibrance, stateless persons, and displaced people who have been and continue to enter Europe as we have seen, all seen, in the videos and news reports.    Migrants fleeing to Europe, they have been an issue of humanitarian concern for several years, but a wave of immigration erupted into a tsunami this summer, when the German Government announced it would ignore the Dublin rules and accept all Syrian refugees that made it to the German border. That announcement opened the gates for a flow of people to move from North Africa, the Middle East, and even Asia to transit through Greece, Turkey, the Balkans, and northward into Europe. With some notable exceptions, countries have simply facilitated the movement of migrants through their territory as quickly as possible, sometimes working to register the asylum seekers and sometimes not.    While individual stories of tragedy and humanitarian need are compelling, the aggregate number of people on the move is overwhelming. Earlier this week, the United Nations announced that 218,000 migrants crossed the Mediterranean Sea to Europe just last month. That is more than were recorded in all of 2014. It is expected that around 1 million asylum seekers of all origins will reach Germany in this year alone.    Germany and the EU are deeply divided about how to stem the flow of migrants, and what to do with those who have already entered. Clearly, what we have seen over the past few months is unsustainable, and if not checked, will change the fundamental nature of European countries, which are now being inundated.    What we are witnessing is the destruction of western civilization, not by an armed invasion, but instead, through envelopment. The effects of this will not soon disappear, but instead, could well turn out to be an historic change in the nature of many European countries.    Europe has been struggling to assimilate large Muslim populations, they have seen this in Europe. Increasing examples of anti-Semitism and radical Islamic violence clearly speak to the challenge of integration and the risk of failure in this situation. And that was before, of course, all of these--what we are talking about, these reports of this violence, and anti-Semitism, was before the current flow of immigrants began. Chancellor Merkel is full of confidence that Germany can educate, train, and turn refugees into productive and contributing members of society, but that is a tall task by any measure.    Even the most optimistic scenarios say that Europe will have to redirect billions and billions of dollars from supporting their own citizens, to accommodating the needs of these refugees.    I hope in our conversation today. We can examine and discuss, the massive influx of people into the Europe and what will be the consequences for European society, culture, and political institutions.    Without objection, all members will have 5 legislative days to submit additional written questions and extraneous materials for the record.    And I now will turn to Mr. Sires, who will give us his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding today's hearing on the migration and refugee crisis facing Europe, which many consider the worst migration and refugee crisis Europe has faced since World War II.    What is with the sound system?    Most of the migration is from refugees fleeing war-torn countries like Syria. The surge of migrants and refugees have significantly challenged and divided Europe, European countries, and the European Union. Many of the frontline states, such as Greece and Italy, find themselves overburdened with the influx of refugees and lack of sufficient resources to properly register and accommodate refugees and migrants.    It is clear that the EU and Europe, as a whole, must do a better job of coordinating efforts across its borders to manage the large number of people in a humane manner. As we work with our European partners to respond to the refugee crisis, we must remember the total influx of people our borders can cost. We have struggled with our own borders to absorb the surge of women and children fleeing violence in Central America. We have learned firsthand the importance of providing a response to these victims that is both timely and humane. Most importantly, these crises remind us that we can't lose sight of addressing the root causes of migration and finding a political solution to the war in Syria.    America has a long history of helping the world's most vulnerable people, and other countries look to the U.S. to lead when it comes to the refugees' resettlement. The administration recently announced that to accept 10,000 Syrian refugees, was the first sign of a goodwill to those that are desperate to flee the turmoil, but we can do much more.    In addition to increasing the number of refugees we accept on Syria, we can draw our own experience--to draw our own experiences and challenges regarding border security and provide assistance and increased coordination to our European allies to help them cope with the number of migrants and refugees.    I look toward to hearing from our esteemed panel of witnesses on the best path forward.    Thank you, Mr. Chairman, for holding the hearing.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Mr. Chairman, the crisis in Europe has resulted in thousands of refugees going to Europe, and not all of the people going into Europe are trying to escape the Syrian war. Now we understand there are people from all over the Middle East, even as far away as Afghanistan, and all fleeing, looking to move to Europe for various reasons. Not all of them are seeking asylum or refugee status, but may have other motives in mind as well.    I think part of the reason folks were moving so quick out of the Middle East and Syria is because Russia has gotten involved in Syria and is propping up Assad, trying to make sure he sticks around. And people see that their lives are in danger, so they leave the area.    Obviously, Europe was not prepared for this tremendous influx of thousands and thousands of other people. I am not sure that Europe has figured out a way to handle it, and I am sure the United States, in my opinion, is not doing much to help in the crisis. Some countries take various positions on what to do with the migrants, let them pass through or maybe not even let them come into their country. One such example is Hungary, who is trying to protect the national sovereignty of its own country. And the United States, rather than try to understand the situation in Hungary, even last week the U.S. Ambassador dressed down the Hungarians for what the State Department believed was not the right course in dealing with migrants. That does nothing to help our relationship with Hungary, a NATO ally.    It is obvious that there has to be something to be done with these thousands of individuals and where they are going and how long are they going to stay? And what is the United States going to do to help in this crisis? And I am sure that our witnesses have all the answers to these questions. That is why they are here. So I will thank the chairman, and I yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. We are good to go.</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Shiffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shiffman. Thank you, distinguished members of the subcommittee, for inviting me to provide testimony today on the economic views of security implications of the security----</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Rohrabacher. Mr. Lewis.</t>
   </si>
   <si>
-    <t>Lewis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lewis. Thank you. Chairman Rohrabacher, and members of the subcommittee. It isn't often that a political philosopher is invited to speak to a congressional committee, and I am honored by your invitation.    I have been asked to speak about the present migration crisis in Europe from the perspective of political philosophy. Much of what we need to know about the migration crisis is simply empirical. How many persons are involved? Where are they from? Why are they migrating? Et cetera. Philosophy has little to say about these questions. Rather, political philosophy is the business of understanding what principles or reasons should guide our political conduct and shape our institutions and laws; what are the starting points for our thinking about our actions as persons and communities? Our starting points are actual goods that direct all of our practical reasoning. Political philosophy must also be attentive to truths about how human beings characteristically behave; that is, about the stable aspects of human nature.    Political communities provide a context for individuals and groups to pursue their own development. This context includes especially legal systems that authoritatively coordinate the actions and interactions of persons and groups. Political communities are required by and justified by the common good of the people who constitute them. By common good I mean, first, the integral development and flourishing of the persons who live in the community and, secondly, the whole ensemble of conditions that facilitate that development. It is these things that justify but also limit the exercise of political authority.    Among the conditions required for persons in groups to thrive, are the availability of resources, and these resources first come from the earth itself. And no things, no products from the earth, no parts of it, naturally and originally, belong to any particular persons; however, human nature suggests that those things are best maintained when they are shared out in some distribution of private property.    And I believe that this explanation of private property is also the sound reason for the existence of different territorial political communities. Governments and their constituents together are analogous to property owners in the sense that they represent a determinate agency responsible for the maintenance of the necessary conditions in a recognized territory or jurisdiction, justified by the directedness of the agency and those conditions to the common good of their people.    Public order, the security of persons, both individuals and groups and their property and freedom, are essential elements of the common good and are best protected by particular governments with clear jurisdictions. The common good is more than merely a set of laws and institutions. It includes a common culture, among the elements of which are, for example, a common language, at least one common language, and shared sentiments of attachment and common membership. Such sentiments are an indispensable support for the maintenance of legal and political institutions and make possible the sacrifices that are necessary for the preservation of any political community over time. This is especially the case with respect to modern democracies, which tend to be large and which often encompass considerable diversity of ethnicity, religious faith, and moral views among their populations, in addition to the social mobility and dynamism characteristic of modern economies.    The role of shared practices, values, and sentiments in the maintenance of stable political communities that really do promote the common good of their citizens was known to Plato and Aristotle at the very beginning of the tradition. Aristotle in particular elaborated the notion of political friendship based on a fundamental agreement, or like-mindedness, about the purpose, structure, and practices of the political system.    In the 19th Century, Alexis de Tocqueville famously made the habits and mores of the people central to his accounts of how democratic political institutions were maintained in the United States.    The willingness of citizens not only to defend one another through military service, but also to consent in the sort of redistributive taxation common to contemporary welfare states assumes a sense of common membership and shared values and sentiments. Without these things, the maintenance of communities and their institutions would require the application of coercive force on a far greater scale than we associate with free societies.    Similarly, among these supports for free governments, are more generic but nevertheless, dearly bought values like the rule of law, an atmosphere in which legal and natural rights of persons are acknowledged and protected by the law with habits of civility and mutual forbearance that are informed by civic and political friendship.    The common good of the political community is challenged, if not threatened, by the sudden and disorderly influx of large numbers of foreigners. And so the very common good that justifies political authority also justifies, I would say requires, government's concern about who enters their territory, and even more importantly, about the assimilation of immigrants into the community. Both the need to protect public order and the need to assimilate, justify concern about the number of immigrants into the country and their character.    A large group of immigrants who come predominantly from a distinct region of the world with its own culture that is significantly different from that of their country of destination presents an obvious challenge that no government could responsibly ignore. Indeed, there may be particularly urgent concerns if the immigrant group contains large numbers of persons who are from places where genuine political community has not emerged and more social life is still dominated by family and tribal loyalties, or who are reasonably believed to hold views that are inconsistent with democratic political institutions and the protection of basic human rights, especially the equal legal rights of women and religious freedom.    Large numbers hastily or heedlessly admitted cannot only strain a country's material infrastructure of social support, but its legal system and larger political culture. Moreover, it could set in motion changes, the full import of which may not be immediately apparent but which could lead to various forms of social and political instability later.    The collision we witness today in Europe of immense numbers of immigrants from a distinct civilization with a demographic collapse of Western European countries, countries with birth rates well below replacement levels, cannot but have far-reaching consequences not only for the internal politics of those countries, but also for the neighboring countries of Central and Eastern Europe and at some stage for the United States as well. Since we cannot now know what kind of political pressure may eventually brought to bear on those countries' governments relative to the character and future of the Western alliance. Thank you.</t>
   </si>
   <si>
@@ -251,9 +233,6 @@
   </si>
   <si>
     <t>412529</t>
-  </si>
-  <si>
-    <t>Lois Frankel</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, very much. Well, you know, we could talk about border security and sovereign rights all day. But here is the cruel fact of it all: We are dealing with the worst humanitarian crisis in, what, since World War II. And these people, they have to go somewhere, because they are getting killed and tortured, and they are starving. It is a horrible situation.    First question I would like you to comment--you know, answer, if you want to weigh in, which I think is important for our public to understand, and that is--because we are looking at all this afar, and I think we can understand the humanitarian part of this. I would like your opinion on what is happening now in Europe, how that would affect our own economic or national security here in the United States? What are the long-term implications?</t>
@@ -802,11 +781,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -854,11 +829,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -878,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -906,11 +877,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -930,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -958,11 +925,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -982,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1010,11 +973,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1034,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1062,11 +1021,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1086,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1114,11 +1069,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1138,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1166,11 +1117,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1190,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1218,11 +1165,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1244,11 +1189,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1268,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1296,11 +1237,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1320,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1348,11 +1285,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1372,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1400,11 +1333,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1424,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1452,11 +1381,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1504,11 +1429,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1528,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1556,11 +1477,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1580,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1606,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1632,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1658,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1684,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1710,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1736,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1762,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1788,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1814,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1840,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1868,11 +1765,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1892,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1918,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1944,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1970,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1996,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2022,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2048,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2074,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2100,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2126,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2152,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2178,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2204,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2232,11 +2101,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2256,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2282,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2308,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2334,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2360,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2386,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2412,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2438,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2464,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2490,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2516,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2542,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G69" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2568,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2596,11 +2437,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2620,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2646,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2672,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2698,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2724,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2750,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2776,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2802,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2828,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2854,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2880,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2906,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2932,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2958,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2984,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3010,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3036,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3062,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3088,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3114,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3140,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3166,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3192,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3218,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
-      </c>
-      <c r="G95" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3244,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3270,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3296,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3322,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3348,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3374,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3400,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3428,11 +3205,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3452,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3480,11 +3253,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3504,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3532,11 +3301,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97462.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97462.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I call to order this hearing of the Europe, Eurasia, and Emerging Threats Subcommittee. As we begin today, I want to note that Congressman Meeks, the subcommittee's ranking member, is not with us today. He is recovering from a small, a minor, heart attack. We are grateful, very, very grateful, that it is a small one, and that he is on his way to recovery. He is on the mend, and we are looking forward to having him back with us very soon. I know I speak for all my colleagues, and we wish him the very, very best.    Turning the topic to this afternoon's hearing, I want to apologize for being late, but that is what happens when you have to do these hearings around votes.    The topic of this afternoon's hearing is a massive and increasing tide of asylum seekers, economic vibrance, stateless persons, and displaced people who have been and continue to enter Europe as we have seen, all seen, in the videos and news reports.    Migrants fleeing to Europe, they have been an issue of humanitarian concern for several years, but a wave of immigration erupted into a tsunami this summer, when the German Government announced it would ignore the Dublin rules and accept all Syrian refugees that made it to the German border. That announcement opened the gates for a flow of people to move from North Africa, the Middle East, and even Asia to transit through Greece, Turkey, the Balkans, and northward into Europe. With some notable exceptions, countries have simply facilitated the movement of migrants through their territory as quickly as possible, sometimes working to register the asylum seekers and sometimes not.    While individual stories of tragedy and humanitarian need are compelling, the aggregate number of people on the move is overwhelming. Earlier this week, the United Nations announced that 218,000 migrants crossed the Mediterranean Sea to Europe just last month. That is more than were recorded in all of 2014. It is expected that around 1 million asylum seekers of all origins will reach Germany in this year alone.    Germany and the EU are deeply divided about how to stem the flow of migrants, and what to do with those who have already entered. Clearly, what we have seen over the past few months is unsustainable, and if not checked, will change the fundamental nature of European countries, which are now being inundated.    What we are witnessing is the destruction of western civilization, not by an armed invasion, but instead, through envelopment. The effects of this will not soon disappear, but instead, could well turn out to be an historic change in the nature of many European countries.    Europe has been struggling to assimilate large Muslim populations, they have seen this in Europe. Increasing examples of anti-Semitism and radical Islamic violence clearly speak to the challenge of integration and the risk of failure in this situation. And that was before, of course, all of these--what we are talking about, these reports of this violence, and anti-Semitism, was before the current flow of immigrants began. Chancellor Merkel is full of confidence that Germany can educate, train, and turn refugees into productive and contributing members of society, but that is a tall task by any measure.    Even the most optimistic scenarios say that Europe will have to redirect billions and billions of dollars from supporting their own citizens, to accommodating the needs of these refugees.    I hope in our conversation today. We can examine and discuss, the massive influx of people into the Europe and what will be the consequences for European society, culture, and political institutions.    Without objection, all members will have 5 legislative days to submit additional written questions and extraneous materials for the record.    And I now will turn to Mr. Sires, who will give us his opening statement.</t>
   </si>
   <si>
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman, for holding today's hearing on the migration and refugee crisis facing Europe, which many consider the worst migration and refugee crisis Europe has faced since World War II.    What is with the sound system?    Most of the migration is from refugees fleeing war-torn countries like Syria. The surge of migrants and refugees have significantly challenged and divided Europe, European countries, and the European Union. Many of the frontline states, such as Greece and Italy, find themselves overburdened with the influx of refugees and lack of sufficient resources to properly register and accommodate refugees and migrants.    It is clear that the EU and Europe, as a whole, must do a better job of coordinating efforts across its borders to manage the large number of people in a humane manner. As we work with our European partners to respond to the refugee crisis, we must remember the total influx of people our borders can cost. We have struggled with our own borders to absorb the surge of women and children fleeing violence in Central America. We have learned firsthand the importance of providing a response to these victims that is both timely and humane. Most importantly, these crises remind us that we can't lose sight of addressing the root causes of migration and finding a political solution to the war in Syria.    America has a long history of helping the world's most vulnerable people, and other countries look to the U.S. to lead when it comes to the refugees' resettlement. The administration recently announced that to accept 10,000 Syrian refugees, was the first sign of a goodwill to those that are desperate to flee the turmoil, but we can do much more.    In addition to increasing the number of refugees we accept on Syria, we can draw our own experience--to draw our own experiences and challenges regarding border security and provide assistance and increased coordination to our European allies to help them cope with the number of migrants and refugees.    I look toward to hearing from our esteemed panel of witnesses on the best path forward.    Thank you, Mr. Chairman, for holding the hearing.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Mr. Chairman, the crisis in Europe has resulted in thousands of refugees going to Europe, and not all of the people going into Europe are trying to escape the Syrian war. Now we understand there are people from all over the Middle East, even as far away as Afghanistan, and all fleeing, looking to move to Europe for various reasons. Not all of them are seeking asylum or refugee status, but may have other motives in mind as well.    I think part of the reason folks were moving so quick out of the Middle East and Syria is because Russia has gotten involved in Syria and is propping up Assad, trying to make sure he sticks around. And people see that their lives are in danger, so they leave the area.    Obviously, Europe was not prepared for this tremendous influx of thousands and thousands of other people. I am not sure that Europe has figured out a way to handle it, and I am sure the United States, in my opinion, is not doing much to help in the crisis. Some countries take various positions on what to do with the migrants, let them pass through or maybe not even let them come into their country. One such example is Hungary, who is trying to protect the national sovereignty of its own country. And the United States, rather than try to understand the situation in Hungary, even last week the U.S. Ambassador dressed down the Hungarians for what the State Department believed was not the right course in dealing with migrants. That does nothing to help our relationship with Hungary, a NATO ally.    It is obvious that there has to be something to be done with these thousands of individuals and where they are going and how long are they going to stay? And what is the United States going to do to help in this crisis? And I am sure that our witnesses have all the answers to these questions. That is why they are here. So I will thank the chairman, and I yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. We are good to go.</t>
   </si>
   <si>
@@ -97,6 +124,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Shiffman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shiffman. Thank you, distinguished members of the subcommittee, for inviting me to provide testimony today on the economic views of security implications of the security----</t>
   </si>
   <si>
@@ -109,6 +139,9 @@
     <t xml:space="preserve">    Mr. Rohrabacher. Mr. Lewis.</t>
   </si>
   <si>
+    <t>Lewis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lewis. Thank you. Chairman Rohrabacher, and members of the subcommittee. It isn't often that a political philosopher is invited to speak to a congressional committee, and I am honored by your invitation.    I have been asked to speak about the present migration crisis in Europe from the perspective of political philosophy. Much of what we need to know about the migration crisis is simply empirical. How many persons are involved? Where are they from? Why are they migrating? Et cetera. Philosophy has little to say about these questions. Rather, political philosophy is the business of understanding what principles or reasons should guide our political conduct and shape our institutions and laws; what are the starting points for our thinking about our actions as persons and communities? Our starting points are actual goods that direct all of our practical reasoning. Political philosophy must also be attentive to truths about how human beings characteristically behave; that is, about the stable aspects of human nature.    Political communities provide a context for individuals and groups to pursue their own development. This context includes especially legal systems that authoritatively coordinate the actions and interactions of persons and groups. Political communities are required by and justified by the common good of the people who constitute them. By common good I mean, first, the integral development and flourishing of the persons who live in the community and, secondly, the whole ensemble of conditions that facilitate that development. It is these things that justify but also limit the exercise of political authority.    Among the conditions required for persons in groups to thrive, are the availability of resources, and these resources first come from the earth itself. And no things, no products from the earth, no parts of it, naturally and originally, belong to any particular persons; however, human nature suggests that those things are best maintained when they are shared out in some distribution of private property.    And I believe that this explanation of private property is also the sound reason for the existence of different territorial political communities. Governments and their constituents together are analogous to property owners in the sense that they represent a determinate agency responsible for the maintenance of the necessary conditions in a recognized territory or jurisdiction, justified by the directedness of the agency and those conditions to the common good of their people.    Public order, the security of persons, both individuals and groups and their property and freedom, are essential elements of the common good and are best protected by particular governments with clear jurisdictions. The common good is more than merely a set of laws and institutions. It includes a common culture, among the elements of which are, for example, a common language, at least one common language, and shared sentiments of attachment and common membership. Such sentiments are an indispensable support for the maintenance of legal and political institutions and make possible the sacrifices that are necessary for the preservation of any political community over time. This is especially the case with respect to modern democracies, which tend to be large and which often encompass considerable diversity of ethnicity, religious faith, and moral views among their populations, in addition to the social mobility and dynamism characteristic of modern economies.    The role of shared practices, values, and sentiments in the maintenance of stable political communities that really do promote the common good of their citizens was known to Plato and Aristotle at the very beginning of the tradition. Aristotle in particular elaborated the notion of political friendship based on a fundamental agreement, or like-mindedness, about the purpose, structure, and practices of the political system.    In the 19th Century, Alexis de Tocqueville famously made the habits and mores of the people central to his accounts of how democratic political institutions were maintained in the United States.    The willingness of citizens not only to defend one another through military service, but also to consent in the sort of redistributive taxation common to contemporary welfare states assumes a sense of common membership and shared values and sentiments. Without these things, the maintenance of communities and their institutions would require the application of coercive force on a far greater scale than we associate with free societies.    Similarly, among these supports for free governments, are more generic but nevertheless, dearly bought values like the rule of law, an atmosphere in which legal and natural rights of persons are acknowledged and protected by the law with habits of civility and mutual forbearance that are informed by civic and political friendship.    The common good of the political community is challenged, if not threatened, by the sudden and disorderly influx of large numbers of foreigners. And so the very common good that justifies political authority also justifies, I would say requires, government's concern about who enters their territory, and even more importantly, about the assimilation of immigrants into the community. Both the need to protect public order and the need to assimilate, justify concern about the number of immigrants into the country and their character.    A large group of immigrants who come predominantly from a distinct region of the world with its own culture that is significantly different from that of their country of destination presents an obvious challenge that no government could responsibly ignore. Indeed, there may be particularly urgent concerns if the immigrant group contains large numbers of persons who are from places where genuine political community has not emerged and more social life is still dominated by family and tribal loyalties, or who are reasonably believed to hold views that are inconsistent with democratic political institutions and the protection of basic human rights, especially the equal legal rights of women and religious freedom.    Large numbers hastily or heedlessly admitted cannot only strain a country's material infrastructure of social support, but its legal system and larger political culture. Moreover, it could set in motion changes, the full import of which may not be immediately apparent but which could lead to various forms of social and political instability later.    The collision we witness today in Europe of immense numbers of immigrants from a distinct civilization with a demographic collapse of Western European countries, countries with birth rates well below replacement levels, cannot but have far-reaching consequences not only for the internal politics of those countries, but also for the neighboring countries of Central and Eastern Europe and at some stage for the United States as well. Since we cannot now know what kind of political pressure may eventually brought to bear on those countries' governments relative to the character and future of the Western alliance. Thank you.</t>
   </si>
   <si>
@@ -233,6 +266,12 @@
   </si>
   <si>
     <t>412529</t>
+  </si>
+  <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, very much. Well, you know, we could talk about border security and sovereign rights all day. But here is the cruel fact of it all: We are dealing with the worst humanitarian crisis in, what, since World War II. And these people, they have to go somewhere, because they are getting killed and tortured, and they are starving. It is a horrible situation.    First question I would like you to comment--you know, answer, if you want to weigh in, which I think is important for our public to understand, and that is--because we are looking at all this afar, and I think we can understand the humanitarian part of this. I would like your opinion on what is happening now in Europe, how that would affect our own economic or national security here in the United States? What are the long-term implications?</t>
@@ -731,7 +770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +778,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2549 +800,3004 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
       <c r="H70" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G75" t="s">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G81" t="s">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G97" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97462.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97462.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rohrabacher</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412186</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sires</t>
@@ -770,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +787,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,3001 +812,3244 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>41</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>39</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
-      </c>
-      <c r="G91" t="s">
-        <v>36</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>36</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>39</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>39</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>38</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>39</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
